--- a/medicine/Enfance/Mary_Patchett/Mary_Patchett.xlsx
+++ b/medicine/Enfance/Mary_Patchett/Mary_Patchett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mary Elwyn Patchett, née le 2 décembre 1897 à Sydney[1] et morte en 1989 en Angleterre[2] est une femme de lettres australienne, auteure de littérature de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mary Elwyn Patchett, née le 2 décembre 1897 à Sydney et morte en 1989 en Angleterre est une femme de lettres australienne, auteure de littérature de jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mary Patchett grandit dans un ranch de bétail dans le Queensland[3]. Elle travaille comme journaliste pour le groupe The Sun avant de partir pour l'Angleterre en 1931[3]. En 1953, elle publie son premier roman, Ajax the Warrior, sur un chien, qui avait d'abord été écrit pour la BBC. À partir de 1958, elle publie ensuite une série sur un cheval, Brumby[1]. Elle écrit aussi des récits de science-fiction (Kidnappers of Space, Adam Troy, Astroman, Lost on Venus). Elle était membre de la British Interplanetary Society.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mary Patchett grandit dans un ranch de bétail dans le Queensland. Elle travaille comme journaliste pour le groupe The Sun avant de partir pour l'Angleterre en 1931. En 1953, elle publie son premier roman, Ajax the Warrior, sur un chien, qui avait d'abord été écrit pour la BBC. À partir de 1958, elle publie ensuite une série sur un cheval, Brumby. Elle écrit aussi des récits de science-fiction (Kidnappers of Space, Adam Troy, Astroman, Lost on Venus). Elle était membre de la British Interplanetary Society.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Frère sauvage(Wild Brother, 1954), Robert Laffont, 1955.
 4 aventures de Ajax, le chien sans peur : Ajax le guerrier (Ajax the Warrior, 1953) ; Tam l'indompté (Tam the Untamed, 1954) ; Le Trésor de la Grande barrière (Treasure of the Reef, 1955) ; Mary et ses amis (Return to the Reef, 1956), Robert Laffont, 1958.
